--- a/data/pca/factorExposure/factorExposure_2014-05-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-05-29.xlsx
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.002717655856977501</v>
+        <v>-0.0022392361385626</v>
       </c>
       <c r="C2">
-        <v>0.1381714631611708</v>
+        <v>-0.01957787385376282</v>
       </c>
       <c r="D2">
-        <v>0.05739482413775596</v>
+        <v>0.07670304147610539</v>
       </c>
       <c r="E2">
-        <v>0.2324802312013338</v>
+        <v>-0.02785605247421792</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -751,16 +751,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.01078768439600322</v>
+        <v>-0.001812551935455483</v>
       </c>
       <c r="C4">
-        <v>0.1660274060291256</v>
+        <v>-0.03024192550951704</v>
       </c>
       <c r="D4">
-        <v>0.0504816108524225</v>
+        <v>0.129255453888993</v>
       </c>
       <c r="E4">
-        <v>0.01149064963169515</v>
+        <v>-0.04781467102167855</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -785,16 +785,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.03496232831844724</v>
+        <v>-0.0009956225603339525</v>
       </c>
       <c r="C6">
-        <v>0.08751821867573814</v>
+        <v>-0.04984710142989605</v>
       </c>
       <c r="D6">
-        <v>0.05723891628923017</v>
+        <v>0.08181383761878204</v>
       </c>
       <c r="E6">
-        <v>0.001435658641988779</v>
+        <v>-0.01445393183285421</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -802,16 +802,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.02181650621940557</v>
+        <v>-0.00219786762841737</v>
       </c>
       <c r="C7">
-        <v>0.08951534220033794</v>
+        <v>-0.02588335892633931</v>
       </c>
       <c r="D7">
-        <v>0.03760586196990574</v>
+        <v>0.06683043249830706</v>
       </c>
       <c r="E7">
-        <v>0.00573321242336652</v>
+        <v>-0.01857010820146484</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -819,16 +819,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.005319193508209275</v>
+        <v>0.002121494957217101</v>
       </c>
       <c r="C8">
-        <v>0.07398240021118148</v>
+        <v>-0.007703706231015965</v>
       </c>
       <c r="D8">
-        <v>0.05047811483818802</v>
+        <v>0.05540544119071657</v>
       </c>
       <c r="E8">
-        <v>0.0403141113423722</v>
+        <v>-0.0343123855705741</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -836,16 +836,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.00437445962481361</v>
+        <v>-0.005615202351679251</v>
       </c>
       <c r="C9">
-        <v>0.1215366251887153</v>
+        <v>-0.01828368934609407</v>
       </c>
       <c r="D9">
-        <v>0.05612237910385692</v>
+        <v>0.09522789752169272</v>
       </c>
       <c r="E9">
-        <v>0.0001514469349732725</v>
+        <v>-0.02859839423826962</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -853,16 +853,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2659018326164451</v>
+        <v>0.003354024908906046</v>
       </c>
       <c r="C10">
-        <v>-0.06680227444054992</v>
+        <v>-0.2290756932642683</v>
       </c>
       <c r="D10">
-        <v>-0.01115867962146385</v>
+        <v>-0.1253554341548378</v>
       </c>
       <c r="E10">
-        <v>-0.006780769971610238</v>
+        <v>0.01220625896378804</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -870,16 +870,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.01355219455418914</v>
+        <v>-0.005679192408849899</v>
       </c>
       <c r="C11">
-        <v>0.08059304646827208</v>
+        <v>-0.02795696676720064</v>
       </c>
       <c r="D11">
-        <v>0.03078654737408984</v>
+        <v>0.08709231356663187</v>
       </c>
       <c r="E11">
-        <v>-0.03431350284915931</v>
+        <v>-0.04022652796878833</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -887,16 +887,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.0134835331344427</v>
+        <v>-0.001310382243306957</v>
       </c>
       <c r="C12">
-        <v>0.05524336934323183</v>
+        <v>-0.02388967707116564</v>
       </c>
       <c r="D12">
-        <v>0.02401158368184967</v>
+        <v>0.05288316619484048</v>
       </c>
       <c r="E12">
-        <v>-0.01707035886160097</v>
+        <v>-0.02107506158510601</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -904,16 +904,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.004847628013681758</v>
+        <v>0.003657353483954286</v>
       </c>
       <c r="C13">
-        <v>0.1343517529937767</v>
+        <v>-0.01517836713821041</v>
       </c>
       <c r="D13">
-        <v>0.01947890371815067</v>
+        <v>0.1137478893045346</v>
       </c>
       <c r="E13">
-        <v>0.081854361318819</v>
+        <v>-0.03942983224065853</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -921,16 +921,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.01293483135197766</v>
+        <v>-0.003813458760956855</v>
       </c>
       <c r="C14">
-        <v>0.09936815211851273</v>
+        <v>-0.02897570928565958</v>
       </c>
       <c r="D14">
-        <v>0.05568698245805451</v>
+        <v>0.07744380035220853</v>
       </c>
       <c r="E14">
-        <v>0.0372889245624362</v>
+        <v>-0.02660798080097776</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -938,16 +938,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.002000090626032984</v>
+        <v>-0.003452753416203773</v>
       </c>
       <c r="C15">
-        <v>0.08954195465942558</v>
+        <v>-0.009401241738685831</v>
       </c>
       <c r="D15">
-        <v>0.02400859686234314</v>
+        <v>0.07175632870318246</v>
       </c>
       <c r="E15">
-        <v>0.0003482740860696597</v>
+        <v>-0.0253939548304595</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -955,16 +955,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.01251038246140998</v>
+        <v>-0.003272082394021083</v>
       </c>
       <c r="C16">
-        <v>0.06595839294542995</v>
+        <v>-0.02330975413270173</v>
       </c>
       <c r="D16">
-        <v>0.02962167103086305</v>
+        <v>0.0630257874138984</v>
       </c>
       <c r="E16">
-        <v>-0.02539004088472668</v>
+        <v>-0.02536784435129293</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1023,16 +1023,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.01485096581880416</v>
+        <v>-0.001166347979441004</v>
       </c>
       <c r="C20">
-        <v>0.09735403045797272</v>
+        <v>-0.02396105154465279</v>
       </c>
       <c r="D20">
-        <v>0.04470178959921629</v>
+        <v>0.08484732046485444</v>
       </c>
       <c r="E20">
-        <v>-0.03596972228117781</v>
+        <v>-0.02236742793762818</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1040,16 +1040,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.01057136432216383</v>
+        <v>0.004317421938864071</v>
       </c>
       <c r="C21">
-        <v>0.09058589105857245</v>
+        <v>-0.01549436728940201</v>
       </c>
       <c r="D21">
-        <v>0.01730338514341863</v>
+        <v>0.07328904089391787</v>
       </c>
       <c r="E21">
-        <v>0.1048798375552423</v>
+        <v>-0.009101201806828335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1057,16 +1057,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>-0.01001330168077906</v>
+        <v>-0.01678555350172431</v>
       </c>
       <c r="C22">
-        <v>0.2206530422941038</v>
+        <v>-0.02334983741255594</v>
       </c>
       <c r="D22">
-        <v>-0.09443246577844669</v>
+        <v>0.1680769217312912</v>
       </c>
       <c r="E22">
-        <v>0.1375212627621644</v>
+        <v>-0.02662130272951171</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1074,16 +1074,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>-0.00317029092244979</v>
+        <v>-0.01707503593383677</v>
       </c>
       <c r="C23">
-        <v>0.2275056804158969</v>
+        <v>-0.02817787885827107</v>
       </c>
       <c r="D23">
-        <v>-0.09568055239047295</v>
+        <v>0.169832812906433</v>
       </c>
       <c r="E23">
-        <v>0.1326000715710263</v>
+        <v>-0.02496965994068683</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1091,16 +1091,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.0119333201878576</v>
+        <v>-0.00437560951946902</v>
       </c>
       <c r="C24">
-        <v>0.0710162446726721</v>
+        <v>-0.02331683673847882</v>
       </c>
       <c r="D24">
-        <v>0.04706200922255925</v>
+        <v>0.06567511960264265</v>
       </c>
       <c r="E24">
-        <v>-0.02184307277614028</v>
+        <v>-0.03385597149371945</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1108,16 +1108,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.01693441636538084</v>
+        <v>-0.006015922215843159</v>
       </c>
       <c r="C25">
-        <v>0.07270886769307155</v>
+        <v>-0.03010036286958632</v>
       </c>
       <c r="D25">
-        <v>0.0259881649668991</v>
+        <v>0.06969699635010797</v>
       </c>
       <c r="E25">
-        <v>-0.02520093306481387</v>
+        <v>-0.02881651104352444</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1125,16 +1125,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.02761398297630453</v>
+        <v>-0.006340795759941682</v>
       </c>
       <c r="C26">
-        <v>0.05135813457012927</v>
+        <v>-0.02763512770247254</v>
       </c>
       <c r="D26">
-        <v>0.08669485440185905</v>
+        <v>0.04682312821653165</v>
       </c>
       <c r="E26">
-        <v>0.03047936188808941</v>
+        <v>-0.04546528786330267</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1159,16 +1159,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3286975405955133</v>
+        <v>-0.007802012382121734</v>
       </c>
       <c r="C28">
-        <v>-0.09706387138504845</v>
+        <v>-0.2955046108580198</v>
       </c>
       <c r="D28">
-        <v>-0.05296636388088497</v>
+        <v>-0.1478109635773072</v>
       </c>
       <c r="E28">
-        <v>-0.009283610521055046</v>
+        <v>0.0342445807210905</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1176,16 +1176,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.008195788713950568</v>
+        <v>-0.001817353463374728</v>
       </c>
       <c r="C29">
-        <v>0.1062446475083287</v>
+        <v>-0.02396260650569099</v>
       </c>
       <c r="D29">
-        <v>0.06068896460478045</v>
+        <v>0.07859359252242162</v>
       </c>
       <c r="E29">
-        <v>0.01529811584046879</v>
+        <v>-0.02920500445665638</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1193,16 +1193,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.01766698577311357</v>
+        <v>-0.005904054084326319</v>
       </c>
       <c r="C30">
-        <v>0.1532964373045244</v>
+        <v>-0.05042993564000009</v>
       </c>
       <c r="D30">
-        <v>0.05342376061208276</v>
+        <v>0.146580183755199</v>
       </c>
       <c r="E30">
-        <v>0.02535008051392977</v>
+        <v>-0.03774657806393228</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1210,16 +1210,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.007337949285606785</v>
+        <v>-0.0005395921565371144</v>
       </c>
       <c r="C31">
-        <v>0.07511646845818119</v>
+        <v>-0.02072626662573801</v>
       </c>
       <c r="D31">
-        <v>0.04533228817481224</v>
+        <v>0.07163232913608221</v>
       </c>
       <c r="E31">
-        <v>-0.02275982995838697</v>
+        <v>-0.02947336632742711</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1227,16 +1227,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.01057063524944313</v>
+        <v>-0.002301146224606457</v>
       </c>
       <c r="C32">
-        <v>0.09341156340476026</v>
+        <v>-0.02522561939288471</v>
       </c>
       <c r="D32">
-        <v>0.02051575502643086</v>
+        <v>0.04995875573677692</v>
       </c>
       <c r="E32">
-        <v>0.1207521286804929</v>
+        <v>-0.03013200273583665</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1244,16 +1244,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.01518787549681172</v>
+        <v>-0.003430546547163364</v>
       </c>
       <c r="C33">
-        <v>0.1034487337390075</v>
+        <v>-0.02889682819250258</v>
       </c>
       <c r="D33">
-        <v>0.05175285556985004</v>
+        <v>0.09770454945190586</v>
       </c>
       <c r="E33">
-        <v>-0.02650896420530329</v>
+        <v>-0.04342741741887369</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1261,16 +1261,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.01183052990614504</v>
+        <v>-0.005687927900466212</v>
       </c>
       <c r="C34">
-        <v>0.05345371440269216</v>
+        <v>-0.02363467911108747</v>
       </c>
       <c r="D34">
-        <v>0.02358486810913447</v>
+        <v>0.05208658085384678</v>
       </c>
       <c r="E34">
-        <v>-0.005746863964160867</v>
+        <v>-0.02076655483791909</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1278,16 +1278,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.005396832651296125</v>
+        <v>-0.0044294548141506</v>
       </c>
       <c r="C35">
-        <v>0.06503981122793553</v>
+        <v>-0.01758356692958557</v>
       </c>
       <c r="D35">
-        <v>0.02078080737134761</v>
+        <v>0.05148362167540824</v>
       </c>
       <c r="E35">
-        <v>0.003667736783473156</v>
+        <v>-0.0202331926132416</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1295,16 +1295,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.01797439867598693</v>
+        <v>-0.004875646981987929</v>
       </c>
       <c r="C36">
-        <v>0.05352824436084838</v>
+        <v>-0.01710641212431415</v>
       </c>
       <c r="D36">
-        <v>0.06170707656749205</v>
+        <v>0.03936850841500735</v>
       </c>
       <c r="E36">
-        <v>0.01461681193960576</v>
+        <v>-0.02802820806291703</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1329,16 +1329,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.02434054631276457</v>
+        <v>0.00217050094646552</v>
       </c>
       <c r="C38">
-        <v>0.05884579310561171</v>
+        <v>-0.01791371314967032</v>
       </c>
       <c r="D38">
-        <v>0.03516119752178232</v>
+        <v>0.055265007688416</v>
       </c>
       <c r="E38">
-        <v>-0.03370611883078563</v>
+        <v>-0.0266865793809814</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1346,16 +1346,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.003730470889562757</v>
+        <v>-0.01393842277928616</v>
       </c>
       <c r="C39">
-        <v>0.1178614465670392</v>
+        <v>-0.03911774180714803</v>
       </c>
       <c r="D39">
-        <v>0.05764404387113654</v>
+        <v>0.1293600875658982</v>
       </c>
       <c r="E39">
-        <v>0.01294373469716607</v>
+        <v>-0.04592415211006763</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1363,16 +1363,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.01807768998074701</v>
+        <v>-0.008272281511792535</v>
       </c>
       <c r="C40">
-        <v>0.07103625099326344</v>
+        <v>-0.0355710097175474</v>
       </c>
       <c r="D40">
-        <v>0.01930174413188188</v>
+        <v>0.08806003039705342</v>
       </c>
       <c r="E40">
-        <v>0.002894144310876579</v>
+        <v>-0.03984491351450448</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1380,16 +1380,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.02335861577504498</v>
+        <v>-0.0001716106792840235</v>
       </c>
       <c r="C41">
-        <v>0.04956680690676869</v>
+        <v>-0.02416838968190462</v>
       </c>
       <c r="D41">
-        <v>0.02262505153312479</v>
+        <v>0.04195541706383361</v>
       </c>
       <c r="E41">
-        <v>-0.02498344863756877</v>
+        <v>-0.01263596236096705</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1414,16 +1414,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.01718503917808073</v>
+        <v>-0.003092674457837376</v>
       </c>
       <c r="C43">
-        <v>0.04456901185131434</v>
+        <v>-0.02409271274184718</v>
       </c>
       <c r="D43">
-        <v>0.04145769385488145</v>
+        <v>0.04176455849540168</v>
       </c>
       <c r="E43">
-        <v>-0.02894950847127001</v>
+        <v>-0.02322576485607965</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1431,16 +1431,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.01137145406101542</v>
+        <v>-0.005529627486485831</v>
       </c>
       <c r="C44">
-        <v>0.1013077933204585</v>
+        <v>-0.02767478485738091</v>
       </c>
       <c r="D44">
-        <v>0.06890450286244765</v>
+        <v>0.1016185648793647</v>
       </c>
       <c r="E44">
-        <v>0.04155341787814747</v>
+        <v>-0.05534649336892256</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1465,16 +1465,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.002112965090235266</v>
+        <v>-0.002525268450705368</v>
       </c>
       <c r="C46">
-        <v>0.07266856342366657</v>
+        <v>-0.01351372285111821</v>
       </c>
       <c r="D46">
-        <v>0.06469738044993723</v>
+        <v>0.07373728778346628</v>
       </c>
       <c r="E46">
-        <v>-0.004010049575361637</v>
+        <v>-0.01581187257940446</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1482,16 +1482,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.01956630960514147</v>
+        <v>-0.001748241369865763</v>
       </c>
       <c r="C47">
-        <v>0.07587641837781207</v>
+        <v>-0.02735585464389468</v>
       </c>
       <c r="D47">
-        <v>0.06177179042454285</v>
+        <v>0.07194311567348352</v>
       </c>
       <c r="E47">
-        <v>-0.008316240480899639</v>
+        <v>-0.03866155826688326</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1499,16 +1499,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.02331061669617071</v>
+        <v>0.003525181939281832</v>
       </c>
       <c r="C48">
-        <v>0.0621052789856416</v>
+        <v>-0.02063943638152748</v>
       </c>
       <c r="D48">
-        <v>0.0778002196467944</v>
+        <v>0.04070832246166881</v>
       </c>
       <c r="E48">
-        <v>0.009518598765920832</v>
+        <v>-0.04099559645540778</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1516,16 +1516,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.01459039139500565</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04743002192700935</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.08630486467199143</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.0433269081477132</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1533,16 +1533,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.01091612545703642</v>
+        <v>-0.0008200491413082836</v>
       </c>
       <c r="C50">
-        <v>0.08149457655817258</v>
+        <v>-0.02028023751035449</v>
       </c>
       <c r="D50">
-        <v>0.04487782653574118</v>
+        <v>0.06930955631271898</v>
       </c>
       <c r="E50">
-        <v>-0.02381849343911621</v>
+        <v>-0.01897860355130794</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1550,16 +1550,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.000187784127266046</v>
+        <v>0.00108178468441018</v>
       </c>
       <c r="C51">
-        <v>0.06748880460178536</v>
+        <v>-0.0004697180953611241</v>
       </c>
       <c r="D51">
-        <v>0.04081583837315444</v>
+        <v>0.0301066327990754</v>
       </c>
       <c r="E51">
-        <v>0.03503357701755117</v>
+        <v>-0.02018834836929262</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1584,16 +1584,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.03655729940227573</v>
+        <v>0.0006389924056994317</v>
       </c>
       <c r="C53">
-        <v>0.09837812581490374</v>
+        <v>-0.08036153227395511</v>
       </c>
       <c r="D53">
-        <v>0.04179729694756466</v>
+        <v>0.1341909770368759</v>
       </c>
       <c r="E53">
-        <v>-0.04884629742630365</v>
+        <v>-0.05942188902825975</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1601,16 +1601,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.0137597221732948</v>
+        <v>-0.0009068835248353508</v>
       </c>
       <c r="C54">
-        <v>0.07630978800845635</v>
+        <v>-0.02407314551483286</v>
       </c>
       <c r="D54">
-        <v>0.01599181665164824</v>
+        <v>0.07017663816596949</v>
       </c>
       <c r="E54">
-        <v>-0.03439035540742676</v>
+        <v>-0.008248794765344358</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1618,16 +1618,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.01767301241752774</v>
+        <v>-0.00507288607164241</v>
       </c>
       <c r="C55">
-        <v>0.06812856425476981</v>
+        <v>-0.04213305892269544</v>
       </c>
       <c r="D55">
-        <v>0.06246747083583302</v>
+        <v>0.08709431858938665</v>
       </c>
       <c r="E55">
-        <v>-0.02703507930254477</v>
+        <v>-0.05055794983626526</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1635,16 +1635,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.01709989951813365</v>
+        <v>0.002292909995873776</v>
       </c>
       <c r="C56">
-        <v>0.1308754156401509</v>
+        <v>-0.07365533961373452</v>
       </c>
       <c r="D56">
-        <v>0.05393223038128593</v>
+        <v>0.1616405804080862</v>
       </c>
       <c r="E56">
-        <v>-0.006735132643723409</v>
+        <v>-0.08167007973970392</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1669,16 +1669,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.0230903071331203</v>
+        <v>-0.008785491831929176</v>
       </c>
       <c r="C58">
-        <v>0.2476729613902279</v>
+        <v>-0.03766583530111661</v>
       </c>
       <c r="D58">
-        <v>-0.02414948026439203</v>
+        <v>0.15933462454438</v>
       </c>
       <c r="E58">
-        <v>0.1191739894096979</v>
+        <v>-0.02836608307296642</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1686,16 +1686,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2897788651123627</v>
+        <v>-0.009843686388376165</v>
       </c>
       <c r="C59">
-        <v>-0.005421772117310894</v>
+        <v>-0.2812772603403949</v>
       </c>
       <c r="D59">
-        <v>-0.02197380116411707</v>
+        <v>-0.08356451596040157</v>
       </c>
       <c r="E59">
-        <v>0.07386145355074268</v>
+        <v>0.009321036922296026</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1703,16 +1703,16 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.1441443143096385</v>
+        <v>-0.008395148696832631</v>
       </c>
       <c r="C60">
-        <v>0.1601865058323394</v>
+        <v>-0.1698257384758207</v>
       </c>
       <c r="D60">
-        <v>0.02198213894609915</v>
+        <v>0.1476772684574391</v>
       </c>
       <c r="E60">
-        <v>-0.05277265074223741</v>
+        <v>-0.01634182034471436</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1720,16 +1720,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.01028457029850522</v>
+        <v>-0.01607658838818314</v>
       </c>
       <c r="C61">
-        <v>0.1038838493865723</v>
+        <v>-0.03866183158406535</v>
       </c>
       <c r="D61">
-        <v>0.06635416590484236</v>
+        <v>0.09861887425299305</v>
       </c>
       <c r="E61">
-        <v>-0.01703086892960161</v>
+        <v>-0.04938407144370916</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1737,16 +1737,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.184188213420771</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.003934345731436847</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.03248284184780195</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.009329546460323487</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1754,16 +1754,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.01638086802726863</v>
+        <v>-0.002681641259824146</v>
       </c>
       <c r="C63">
-        <v>0.05764206638587983</v>
+        <v>-0.03317424351864675</v>
       </c>
       <c r="D63">
-        <v>0.08559772847477432</v>
+        <v>0.05533100866498943</v>
       </c>
       <c r="E63">
-        <v>-0.003423458119334366</v>
+        <v>-0.04470793629234231</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1771,16 +1771,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>-0.001366800146301401</v>
+        <v>-0.008125631139174874</v>
       </c>
       <c r="C64">
-        <v>0.09656555626050824</v>
+        <v>-0.02719689402885127</v>
       </c>
       <c r="D64">
-        <v>0.05727759567849183</v>
+        <v>0.08855996422705804</v>
       </c>
       <c r="E64">
-        <v>-0.0535336195406837</v>
+        <v>-0.02414393924316264</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1788,16 +1788,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.02012866741611061</v>
+        <v>-0.0001639000972114617</v>
       </c>
       <c r="C65">
-        <v>0.1119959846256268</v>
+        <v>-0.04050428727734885</v>
       </c>
       <c r="D65">
-        <v>0.03443432615017591</v>
+        <v>0.09087659233474725</v>
       </c>
       <c r="E65">
-        <v>-0.0630354071373838</v>
+        <v>-0.01002891476743335</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1805,16 +1805,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>-0.004714787159685352</v>
+        <v>-0.01032107934548048</v>
       </c>
       <c r="C66">
-        <v>0.1675709399969589</v>
+        <v>-0.0436894558340634</v>
       </c>
       <c r="D66">
-        <v>0.0542471385555354</v>
+        <v>0.1753396068045973</v>
       </c>
       <c r="E66">
-        <v>0.03022569658017923</v>
+        <v>-0.04887548687483786</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1822,16 +1822,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.030130029196305</v>
+        <v>0.00216022732207064</v>
       </c>
       <c r="C67">
-        <v>0.04286874789452155</v>
+        <v>-0.02913924966604413</v>
       </c>
       <c r="D67">
-        <v>0.04495742538717992</v>
+        <v>0.05236111519475464</v>
       </c>
       <c r="E67">
-        <v>-0.06346067362194151</v>
+        <v>-0.0335922419163886</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1839,16 +1839,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3059133320153439</v>
+        <v>-0.01063567744523422</v>
       </c>
       <c r="C68">
-        <v>-0.02815469074159313</v>
+        <v>-0.2760665475092198</v>
       </c>
       <c r="D68">
-        <v>-0.05101988815596134</v>
+        <v>-0.1185266126496424</v>
       </c>
       <c r="E68">
-        <v>0.03027655953276437</v>
+        <v>0.04082209741203398</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1856,16 +1856,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.01604907394605486</v>
+        <v>-0.003753018878536031</v>
       </c>
       <c r="C69">
-        <v>0.05908110707146658</v>
+        <v>-0.01379512579311589</v>
       </c>
       <c r="D69">
-        <v>0.04069189666080993</v>
+        <v>0.04528672705023291</v>
       </c>
       <c r="E69">
-        <v>-0.0282911720673619</v>
+        <v>-0.0208262901649465</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1890,16 +1890,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.2891695398256403</v>
+        <v>-0.005801336969492019</v>
       </c>
       <c r="C71">
-        <v>-0.03556986272815209</v>
+        <v>-0.264660433116789</v>
       </c>
       <c r="D71">
-        <v>-0.003344375362338397</v>
+        <v>-0.1158394272417641</v>
       </c>
       <c r="E71">
-        <v>0.009578405885779949</v>
+        <v>0.02149179629387289</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1907,16 +1907,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.02377036265195031</v>
+        <v>-0.009326834933297471</v>
       </c>
       <c r="C72">
-        <v>0.1343384327142411</v>
+        <v>-0.06941869849066565</v>
       </c>
       <c r="D72">
-        <v>0.02944800101434667</v>
+        <v>0.127906556896113</v>
       </c>
       <c r="E72">
-        <v>-0.02601872395521066</v>
+        <v>-0.02184551820830522</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1924,16 +1924,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.1269176216665063</v>
+        <v>-0.01556659320388665</v>
       </c>
       <c r="C73">
-        <v>0.1396790056823609</v>
+        <v>-0.1799082570834124</v>
       </c>
       <c r="D73">
-        <v>0.09761518593774644</v>
+        <v>0.1716973755935603</v>
       </c>
       <c r="E73">
-        <v>-0.07947117560161218</v>
+        <v>-0.05270942280424767</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1941,16 +1941,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.02380083534293147</v>
+        <v>-0.00481620943706395</v>
       </c>
       <c r="C74">
-        <v>0.08643167116367903</v>
+        <v>-0.05014948182098038</v>
       </c>
       <c r="D74">
-        <v>0.05481864213691534</v>
+        <v>0.1013064208226649</v>
       </c>
       <c r="E74">
-        <v>-0.02106521467341922</v>
+        <v>-0.03242331171174591</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1958,16 +1958,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.03561040145850712</v>
+        <v>-0.007765313781126128</v>
       </c>
       <c r="C75">
-        <v>0.1386793002393509</v>
+        <v>-0.07925794634911569</v>
       </c>
       <c r="D75">
-        <v>0.0442080330399688</v>
+        <v>0.1752632526368866</v>
       </c>
       <c r="E75">
-        <v>-0.07601843626890899</v>
+        <v>-0.0656761311859403</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1975,16 +1975,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.01974677378748502</v>
+        <v>0.01126680745049562</v>
       </c>
       <c r="C76">
-        <v>0.1016059306598916</v>
+        <v>-0.06402431503883405</v>
       </c>
       <c r="D76">
-        <v>0.0664022772053173</v>
+        <v>0.1390956455615731</v>
       </c>
       <c r="E76">
-        <v>-0.04160344370220996</v>
+        <v>-0.0757870836041524</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1992,16 +1992,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.0004256147922438273</v>
+        <v>0.003505848154231695</v>
       </c>
       <c r="C77">
-        <v>0.3416077894883991</v>
+        <v>-0.04902958297709759</v>
       </c>
       <c r="D77">
-        <v>-0.8705534378942236</v>
+        <v>0.3279749873469067</v>
       </c>
       <c r="E77">
-        <v>-0.1749843063308611</v>
+        <v>0.9321878833556689</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2009,16 +2009,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.02522063595276567</v>
+        <v>0.0001166447824436815</v>
       </c>
       <c r="C78">
-        <v>0.119178674446807</v>
+        <v>-0.04546351143202246</v>
       </c>
       <c r="D78">
-        <v>0.1354978860007416</v>
+        <v>0.09795024264697905</v>
       </c>
       <c r="E78">
-        <v>0.07405266240078516</v>
+        <v>-0.05661246735549562</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2026,16 +2026,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.02178434962460854</v>
+        <v>0.02743292315257435</v>
       </c>
       <c r="C79">
-        <v>0.1272508958143134</v>
+        <v>-0.07289108608252336</v>
       </c>
       <c r="D79">
-        <v>0.05902355691694347</v>
+        <v>0.1377759081587814</v>
       </c>
       <c r="E79">
-        <v>-0.02306633899634149</v>
+        <v>-0.04554433534700445</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2043,16 +2043,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.02181217558770857</v>
+        <v>0.004891245276117969</v>
       </c>
       <c r="C80">
-        <v>0.05292351261465069</v>
+        <v>-0.02885532228333924</v>
       </c>
       <c r="D80">
-        <v>0.04189952565126322</v>
+        <v>0.04397287374995013</v>
       </c>
       <c r="E80">
-        <v>0.04577117050630962</v>
+        <v>-0.03617034305241526</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2060,16 +2060,16 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.003230369154490095</v>
+        <v>-1.579869332773996e-06</v>
       </c>
       <c r="C81">
-        <v>0.09747061010340458</v>
+        <v>-0.03170757411408756</v>
       </c>
       <c r="D81">
-        <v>0.06542666272724518</v>
+        <v>0.1143259046584502</v>
       </c>
       <c r="E81">
-        <v>-0.04101367680347621</v>
+        <v>-0.05353189920274789</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2077,16 +2077,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.01839116091937769</v>
+        <v>0.006094935039675063</v>
       </c>
       <c r="C82">
-        <v>0.07067431020045047</v>
+        <v>-0.06149351190680138</v>
       </c>
       <c r="D82">
-        <v>0.06028341837727082</v>
+        <v>0.1109960555007159</v>
       </c>
       <c r="E82">
-        <v>-0.02580654949819892</v>
+        <v>-0.06197854734917917</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2094,16 +2094,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.002827848258215703</v>
+        <v>-0.007176747736833962</v>
       </c>
       <c r="C83">
-        <v>-0.02120426060269461</v>
+        <v>0.000408361127723234</v>
       </c>
       <c r="D83">
-        <v>-0.1307730587726175</v>
+        <v>-0.01496344215100331</v>
       </c>
       <c r="E83">
-        <v>0.853947896450424</v>
+        <v>0.04926138922565363</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2111,16 +2111,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>-0.004342151559318707</v>
+        <v>0.01274894765109976</v>
       </c>
       <c r="C84">
-        <v>0.09606001690448633</v>
+        <v>-0.02013574302288651</v>
       </c>
       <c r="D84">
-        <v>0.02818911706040905</v>
+        <v>0.05365109535816676</v>
       </c>
       <c r="E84">
-        <v>0.00976764854507174</v>
+        <v>-0.06091808905951346</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2128,16 +2128,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.009221828849418799</v>
+        <v>0.01599020124413019</v>
       </c>
       <c r="C85">
-        <v>0.1007341961202245</v>
+        <v>-0.04504568865294831</v>
       </c>
       <c r="D85">
-        <v>0.03591809561849648</v>
+        <v>0.1318077294828707</v>
       </c>
       <c r="E85">
-        <v>-0.03324652215726907</v>
+        <v>-0.05439643194850544</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2145,16 +2145,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.01636137578829449</v>
+        <v>-0.003766730238518572</v>
       </c>
       <c r="C86">
-        <v>0.08691572396525292</v>
+        <v>-0.0214831035199966</v>
       </c>
       <c r="D86">
-        <v>0.02332900087856683</v>
+        <v>0.06966959743116097</v>
       </c>
       <c r="E86">
-        <v>-0.00113443137709648</v>
+        <v>-0.03015312336783965</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2162,16 +2162,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.006492053753776214</v>
+        <v>-0.008037909630690634</v>
       </c>
       <c r="C87">
-        <v>0.1412936256581496</v>
+        <v>-0.03593099501363545</v>
       </c>
       <c r="D87">
-        <v>0.05202170536504427</v>
+        <v>0.1227849256859454</v>
       </c>
       <c r="E87">
-        <v>0.08121580387780751</v>
+        <v>-0.012634109638312</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2179,16 +2179,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.02825762978000214</v>
+        <v>-0.01476946669798768</v>
       </c>
       <c r="C88">
-        <v>0.06082179625054044</v>
+        <v>-0.04488959914062209</v>
       </c>
       <c r="D88">
-        <v>0.05850202329179312</v>
+        <v>0.06121061106091704</v>
       </c>
       <c r="E88">
-        <v>-0.04503736629234802</v>
+        <v>-0.02833930368225685</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2196,16 +2196,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3947014937163438</v>
+        <v>-0.01865562896172206</v>
       </c>
       <c r="C89">
-        <v>-0.06202341315752648</v>
+        <v>-0.3754297848292065</v>
       </c>
       <c r="D89">
-        <v>-0.02319929703392163</v>
+        <v>-0.1531622174817349</v>
       </c>
       <c r="E89">
-        <v>0.004303716228485444</v>
+        <v>0.04117282129643234</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2213,16 +2213,16 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3143553558106554</v>
+        <v>-0.005443185486302798</v>
       </c>
       <c r="C90">
-        <v>-0.02709347383804863</v>
+        <v>-0.3110903497553318</v>
       </c>
       <c r="D90">
-        <v>-0.006795417667803625</v>
+        <v>-0.1096799874845107</v>
       </c>
       <c r="E90">
-        <v>0.07258904349016007</v>
+        <v>0.01687246159569649</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2230,16 +2230,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.03598423577107546</v>
+        <v>0.00138410021070498</v>
       </c>
       <c r="C91">
-        <v>0.07835539881429751</v>
+        <v>-0.0681107467720284</v>
       </c>
       <c r="D91">
-        <v>0.04277934725130926</v>
+        <v>0.0825862609835598</v>
       </c>
       <c r="E91">
-        <v>0.008131190720599216</v>
+        <v>-0.04927683800860146</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2247,16 +2247,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.3656164376268513</v>
+        <v>-0.0176477257632771</v>
       </c>
       <c r="C92">
-        <v>-0.06319224931098366</v>
+        <v>-0.3330706351946979</v>
       </c>
       <c r="D92">
-        <v>-0.04590760215578368</v>
+        <v>-0.1506981383275519</v>
       </c>
       <c r="E92">
-        <v>-0.08252937534264379</v>
+        <v>0.06837941589055362</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2264,16 +2264,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.3161127774740905</v>
+        <v>-0.004364295976881285</v>
       </c>
       <c r="C93">
-        <v>-0.07660618795528962</v>
+        <v>-0.2921162865386904</v>
       </c>
       <c r="D93">
-        <v>-0.00918906974656186</v>
+        <v>-0.1508035707456368</v>
       </c>
       <c r="E93">
-        <v>0.03626664637710018</v>
+        <v>0.01372055628750751</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2281,16 +2281,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.03390364015001902</v>
+        <v>0.002233654362786178</v>
       </c>
       <c r="C94">
-        <v>0.1666337550659159</v>
+        <v>-0.1005780227157561</v>
       </c>
       <c r="D94">
-        <v>0.09896703377816876</v>
+        <v>0.1615597950927485</v>
       </c>
       <c r="E94">
-        <v>-0.07666544871813931</v>
+        <v>-0.08521585298608607</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2298,16 +2298,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.0340375732843566</v>
+        <v>-0.005870681935925739</v>
       </c>
       <c r="C95">
-        <v>0.1296033269437344</v>
+        <v>-0.06058052374405565</v>
       </c>
       <c r="D95">
-        <v>0.06013960344445705</v>
+        <v>0.1349759756263888</v>
       </c>
       <c r="E95">
-        <v>-0.01949612714591004</v>
+        <v>-0.05550337469392865</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2332,16 +2332,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.002880361324990912</v>
+        <v>-0.004183996150955847</v>
       </c>
       <c r="C97">
-        <v>0.003507373349587971</v>
+        <v>-0.03316245429161963</v>
       </c>
       <c r="D97">
-        <v>0.009475666541721073</v>
+        <v>0.04329422774651494</v>
       </c>
       <c r="E97">
-        <v>-0.006798372243667281</v>
+        <v>-0.01055055971194272</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2349,16 +2349,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.110841351818189</v>
+        <v>-0.007899934623597451</v>
       </c>
       <c r="C98">
-        <v>0.1667741009681753</v>
+        <v>-0.1670107754704311</v>
       </c>
       <c r="D98">
-        <v>0.07028251942447696</v>
+        <v>0.1448694575585258</v>
       </c>
       <c r="E98">
-        <v>-0.06154767695521896</v>
+        <v>-0.07935056902565285</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2366,16 +2366,16 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.9801317035667472</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.03471648602300437</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.005470269241950207</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.004001079829339025</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2400,16 +2400,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.008206710182545141</v>
+        <v>-0.001773967878608055</v>
       </c>
       <c r="C101">
-        <v>0.1042115534397836</v>
+        <v>-0.02401080089756596</v>
       </c>
       <c r="D101">
-        <v>0.06026072152655913</v>
+        <v>0.07745716441508907</v>
       </c>
       <c r="E101">
-        <v>0.01599899976195635</v>
+        <v>-0.02785721245776656</v>
       </c>
     </row>
     <row r="102" spans="1:5">
